--- a/DOC/詳細設計書/詳細設計_emsm_基本給更新.xlsx
+++ b/DOC/詳細設計書/詳細設計_emsm_基本給更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76886F3F-487A-42D0-A7D5-F9AF6B01B4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5915" yWindow="0" windowWidth="15441" windowHeight="11332" tabRatio="793" firstSheet="6" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5915" yWindow="0" windowWidth="15441" windowHeight="11332" tabRatio="793" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -7607,7 +7607,7 @@
       <c r="A14" s="77"/>
       <c r="X14" s="79"/>
     </row>
-    <row r="15" ht="23" customFormat="1" s="73">
+    <row r="15" ht="22" customFormat="1" s="73">
       <c r="A15" s="77"/>
       <c r="H15" s="199" t="s">
         <v>57</v>
@@ -7687,7 +7687,7 @@
       <c r="A21" s="77"/>
       <c r="X21" s="79"/>
     </row>
-    <row r="22" ht="12" customFormat="1" s="73">
+    <row r="22" customFormat="1" s="73">
       <c r="A22" s="77"/>
       <c r="G22" s="200" t="s">
         <v>2</v>
@@ -7753,7 +7753,7 @@
       <c r="Q25" s="72"/>
       <c r="X25" s="79"/>
     </row>
-    <row r="26" ht="12" customFormat="1" s="73">
+    <row r="26" customFormat="1" s="73">
       <c r="A26" s="77"/>
       <c r="H26" s="80"/>
       <c r="I26" s="80"/>
@@ -8218,7 +8218,7 @@
     <col min="16195" max="16384" width="1.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="10">
+    <row r="1" ht="9">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -8286,7 +8286,7 @@
       <c r="BM1" s="4"/>
       <c r="BN1" s="14"/>
     </row>
-    <row r="2" ht="10">
+    <row r="2" ht="9">
       <c r="A2" s="461" t="s">
         <v>56</v>
       </c>
@@ -8342,7 +8342,7 @@
       <c r="BM2" s="13"/>
       <c r="BN2" s="15"/>
     </row>
-    <row r="3" ht="10">
+    <row r="3" ht="9">
       <c r="A3" s="463"/>
       <c r="B3" s="464"/>
       <c r="C3" s="464"/>
@@ -8570,7 +8570,7 @@
       <c r="BM5" s="483"/>
       <c r="BN5" s="484"/>
     </row>
-    <row r="6" ht="10">
+    <row r="6" ht="9">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -8639,7 +8639,7 @@
       <c r="BN6" s="20"/>
       <c r="BO6" s="22"/>
     </row>
-    <row r="7" ht="10">
+    <row r="7" ht="9">
       <c r="A7" s="21"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -8708,7 +8708,7 @@
       <c r="BN7" s="12"/>
       <c r="BO7" s="22"/>
     </row>
-    <row r="8" ht="10">
+    <row r="8" ht="9">
       <c r="A8" s="21"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8777,7 +8777,7 @@
       <c r="BN8" s="12"/>
       <c r="BO8" s="22"/>
     </row>
-    <row r="9" ht="10">
+    <row r="9" ht="9">
       <c r="A9" s="21"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8846,7 +8846,7 @@
       <c r="BN9" s="12"/>
       <c r="BO9" s="22"/>
     </row>
-    <row r="10" ht="10">
+    <row r="10" ht="9">
       <c r="A10" s="21"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -8915,7 +8915,7 @@
       <c r="BN10" s="12"/>
       <c r="BO10" s="22"/>
     </row>
-    <row r="11" ht="10">
+    <row r="11" ht="9">
       <c r="A11" s="21"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -8984,7 +8984,7 @@
       <c r="BN11" s="12"/>
       <c r="BO11" s="22"/>
     </row>
-    <row r="12" ht="10">
+    <row r="12" ht="9">
       <c r="A12" s="21"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -9053,7 +9053,7 @@
       <c r="BN12" s="12"/>
       <c r="BO12" s="22"/>
     </row>
-    <row r="13" ht="10">
+    <row r="13" ht="9">
       <c r="A13" s="21"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -9122,7 +9122,7 @@
       <c r="BN13" s="12"/>
       <c r="BO13" s="22"/>
     </row>
-    <row r="14" ht="10">
+    <row r="14" ht="9">
       <c r="A14" s="21"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -9191,7 +9191,7 @@
       <c r="BN14" s="12"/>
       <c r="BO14" s="22"/>
     </row>
-    <row r="15" ht="10">
+    <row r="15" ht="9">
       <c r="A15" s="21"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -9260,7 +9260,7 @@
       <c r="BN15" s="12"/>
       <c r="BO15" s="22"/>
     </row>
-    <row r="16" ht="10">
+    <row r="16" ht="9">
       <c r="A16" s="21"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -9329,7 +9329,7 @@
       <c r="BN16" s="12"/>
       <c r="BO16" s="22"/>
     </row>
-    <row r="17" ht="10">
+    <row r="17" ht="9">
       <c r="A17" s="21"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -9398,7 +9398,7 @@
       <c r="BN17" s="12"/>
       <c r="BO17" s="22"/>
     </row>
-    <row r="18" ht="10">
+    <row r="18" ht="9">
       <c r="A18" s="21"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -9467,7 +9467,7 @@
       <c r="BN18" s="12"/>
       <c r="BO18" s="22"/>
     </row>
-    <row r="19" ht="10">
+    <row r="19" ht="9">
       <c r="A19" s="21"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -9536,7 +9536,7 @@
       <c r="BN19" s="12"/>
       <c r="BO19" s="22"/>
     </row>
-    <row r="20" ht="10">
+    <row r="20" ht="9">
       <c r="A20" s="21"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -9605,7 +9605,7 @@
       <c r="BN20" s="12"/>
       <c r="BO20" s="22"/>
     </row>
-    <row r="21" ht="10">
+    <row r="21" ht="9">
       <c r="A21" s="21"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -9674,7 +9674,7 @@
       <c r="BN21" s="12"/>
       <c r="BO21" s="22"/>
     </row>
-    <row r="22" ht="10">
+    <row r="22" ht="9">
       <c r="A22" s="21"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -9743,7 +9743,7 @@
       <c r="BN22" s="12"/>
       <c r="BO22" s="22"/>
     </row>
-    <row r="23" ht="10">
+    <row r="23" ht="9">
       <c r="A23" s="21"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -9812,7 +9812,7 @@
       <c r="BN23" s="12"/>
       <c r="BO23" s="22"/>
     </row>
-    <row r="24" ht="10">
+    <row r="24" ht="9">
       <c r="A24" s="21"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -9881,7 +9881,7 @@
       <c r="BN24" s="12"/>
       <c r="BO24" s="22"/>
     </row>
-    <row r="25" ht="10">
+    <row r="25" ht="9">
       <c r="A25" s="21"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -9950,56 +9950,56 @@
       <c r="BN25" s="12"/>
       <c r="BO25" s="22"/>
     </row>
-    <row r="26" ht="10">
+    <row r="26" ht="9">
       <c r="A26" s="22"/>
       <c r="BO26" s="22"/>
     </row>
-    <row r="27" ht="10">
+    <row r="27" ht="9">
       <c r="A27" s="22"/>
       <c r="P27" s="7"/>
       <c r="BO27" s="22"/>
     </row>
-    <row r="28" ht="10">
+    <row r="28" ht="9">
       <c r="A28" s="22"/>
       <c r="BO28" s="22"/>
     </row>
-    <row r="29" ht="10">
+    <row r="29" ht="9">
       <c r="A29" s="22"/>
       <c r="BO29" s="22"/>
     </row>
-    <row r="30" ht="10">
+    <row r="30" ht="9">
       <c r="A30" s="22"/>
       <c r="BO30" s="22"/>
     </row>
-    <row r="31" ht="10">
+    <row r="31" ht="9">
       <c r="A31" s="22"/>
       <c r="BO31" s="22"/>
     </row>
-    <row r="32" ht="10">
+    <row r="32" ht="9">
       <c r="A32" s="22"/>
       <c r="BO32" s="22"/>
     </row>
-    <row r="33" ht="10">
+    <row r="33" ht="9">
       <c r="A33" s="22"/>
       <c r="BO33" s="22"/>
     </row>
-    <row r="34" ht="10">
+    <row r="34" ht="9">
       <c r="A34" s="22"/>
       <c r="BO34" s="22"/>
     </row>
-    <row r="35" ht="10">
+    <row r="35" ht="9">
       <c r="A35" s="22"/>
       <c r="BO35" s="22"/>
     </row>
-    <row r="36" ht="10">
+    <row r="36" ht="9">
       <c r="A36" s="22"/>
       <c r="BO36" s="22"/>
     </row>
-    <row r="37" ht="10">
+    <row r="37" ht="9">
       <c r="A37" s="22"/>
       <c r="BO37" s="22"/>
     </row>
-    <row r="38" ht="10">
+    <row r="38" ht="9">
       <c r="A38" s="23"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -15697,11 +15697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BM36"/>
   <sheetViews>
-    <sheetView showGridLines="false" view="pageBreakPreview" topLeftCell="A1" zoomScale="140" zoomScaleNormal="145" zoomScaleSheetLayoutView="140" workbookViewId="0">
-      <selection activeCell="AL32" sqref="AL32"/>
+    <sheetView showGridLines="false" view="pageBreakPreview" topLeftCell="A1" zoomScale="140" zoomScaleNormal="145" zoomScaleSheetLayoutView="140" workbookViewId="0" tabSelected="1">
+      <selection activeCell="AF17" sqref="AF17" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.8984375" defaultRowHeight="13.6" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="1.8984375" defaultRowHeight="10.5" customHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.09765625" style="64" customWidth="1"/>
     <col min="2" max="2" width="2.09765625" style="64" customWidth="1"/>
@@ -16023,7 +16023,7 @@
     <col min="16163" max="16384" width="1.8984375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" ht="9">
+    <row r="1">
       <c r="A1" s="31"/>
       <c r="B1" s="85"/>
       <c r="C1" s="85"/>
@@ -16090,7 +16090,7 @@
       <c r="BL1" s="85"/>
       <c r="BM1" s="86"/>
     </row>
-    <row r="2" ht="9">
+    <row r="2">
       <c r="A2" s="277" t="s">
         <v>101</v>
       </c>
@@ -16143,7 +16143,7 @@
       <c r="BL2" s="88"/>
       <c r="BM2" s="86"/>
     </row>
-    <row r="3" ht="9">
+    <row r="3">
       <c r="A3" s="277"/>
       <c r="B3" s="278"/>
       <c r="C3" s="278"/>
@@ -16194,7 +16194,7 @@
       <c r="BL3" s="87"/>
       <c r="BM3" s="89"/>
     </row>
-    <row r="4" ht="9">
+    <row r="4">
       <c r="A4" s="279" t="s">
         <v>16</v>
       </c>
@@ -16277,7 +16277,7 @@
       <c r="BL4" s="240"/>
       <c r="BM4" s="90"/>
     </row>
-    <row r="5" ht="9">
+    <row r="5">
       <c r="A5" s="268" t="s">
         <v>18</v>
       </c>
@@ -16352,7 +16352,7 @@
       <c r="BL5" s="271"/>
       <c r="BM5" s="95"/>
     </row>
-    <row r="6" ht="9">
+    <row r="6">
       <c r="A6" s="96" t="s">
         <v>113</v>
       </c>
@@ -16421,7 +16421,7 @@
       <c r="BL6" s="256"/>
       <c r="BM6" s="97"/>
     </row>
-    <row r="7" ht="9">
+    <row r="7">
       <c r="A7" s="257" t="s">
         <v>32</v>
       </c>
@@ -16496,7 +16496,7 @@
       <c r="BL7" s="261"/>
       <c r="BM7" s="262"/>
     </row>
-    <row r="8" ht="9">
+    <row r="8">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
@@ -16563,7 +16563,7 @@
       <c r="BL8" s="27"/>
       <c r="BM8" s="86"/>
     </row>
-    <row r="9" ht="9">
+    <row r="9">
       <c r="A9" s="26"/>
       <c r="B9" s="27" t="s">
         <v>34</v>
@@ -16634,7 +16634,7 @@
       <c r="BL9" s="27"/>
       <c r="BM9" s="86"/>
     </row>
-    <row r="10" ht="9">
+    <row r="10">
       <c r="A10" s="26"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27" t="s">
@@ -16702,7 +16702,7 @@
       <c r="BL10" s="27"/>
       <c r="BM10" s="86"/>
     </row>
-    <row r="11" ht="9">
+    <row r="11">
       <c r="A11" s="26"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
@@ -16769,7 +16769,7 @@
       <c r="BL11" s="27"/>
       <c r="BM11" s="86"/>
     </row>
-    <row r="12" ht="9">
+    <row r="12">
       <c r="A12" s="26"/>
       <c r="B12" s="27" t="s">
         <v>36</v>
@@ -16840,7 +16840,7 @@
       <c r="BL12" s="27"/>
       <c r="BM12" s="86"/>
     </row>
-    <row r="13" ht="9">
+    <row r="13">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27" t="s">
@@ -16909,7 +16909,7 @@
       <c r="BL13" s="27"/>
       <c r="BM13" s="86"/>
     </row>
-    <row r="14" ht="9">
+    <row r="14">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -16976,7 +16976,7 @@
       <c r="BL14" s="27"/>
       <c r="BM14" s="86"/>
     </row>
-    <row r="15" ht="9">
+    <row r="15">
       <c r="A15" s="26"/>
       <c r="B15" s="27" t="s">
         <v>37</v>
@@ -17047,7 +17047,7 @@
       <c r="BL15" s="27"/>
       <c r="BM15" s="86"/>
     </row>
-    <row r="16" ht="9">
+    <row r="16">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
@@ -17116,7 +17116,7 @@
       <c r="BL16" s="27"/>
       <c r="BM16" s="86"/>
     </row>
-    <row r="17" ht="9">
+    <row r="17">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -17184,7 +17184,7 @@
       <c r="BL17" s="27"/>
       <c r="BM17" s="86"/>
     </row>
-    <row r="18" ht="9">
+    <row r="18">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
@@ -17250,7 +17250,7 @@
       <c r="BL18" s="27"/>
       <c r="BM18" s="86"/>
     </row>
-    <row r="19" ht="9">
+    <row r="19">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
       <c r="C19" s="28" t="s">
@@ -17321,7 +17321,7 @@
       <c r="BL19" s="27"/>
       <c r="BM19" s="86"/>
     </row>
-    <row r="20" ht="9">
+    <row r="20">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
@@ -17390,7 +17390,7 @@
       <c r="BL20" s="27"/>
       <c r="BM20" s="86"/>
     </row>
-    <row r="21" ht="9">
+    <row r="21">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
       <c r="C21" s="28"/>
@@ -17457,7 +17457,7 @@
       <c r="BL21" s="27"/>
       <c r="BM21" s="86"/>
     </row>
-    <row r="22" ht="9">
+    <row r="22">
       <c r="A22" s="26"/>
       <c r="B22" s="27" t="s">
         <v>38</v>
@@ -17528,7 +17528,7 @@
       <c r="BL22" s="27"/>
       <c r="BM22" s="86"/>
     </row>
-    <row r="23" ht="9">
+    <row r="23">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27" t="s">
@@ -17599,7 +17599,7 @@
       <c r="BL23" s="27"/>
       <c r="BM23" s="86"/>
     </row>
-    <row r="24" ht="14">
+    <row r="24">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -17674,7 +17674,7 @@
       <c r="BL24" s="27"/>
       <c r="BM24" s="86"/>
     </row>
-    <row r="25" ht="11">
+    <row r="25">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -17747,7 +17747,7 @@
       <c r="BL25" s="27"/>
       <c r="BM25" s="86"/>
     </row>
-    <row r="26" ht="9">
+    <row r="26">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
       <c r="C26" s="28"/>
@@ -17820,7 +17820,7 @@
       <c r="BL26" s="27"/>
       <c r="BM26" s="86"/>
     </row>
-    <row r="27" ht="9">
+    <row r="27">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
       <c r="C27" s="28"/>
@@ -17893,7 +17893,7 @@
       <c r="BL27" s="27"/>
       <c r="BM27" s="86"/>
     </row>
-    <row r="28" ht="9">
+    <row r="28">
       <c r="A28" s="26"/>
       <c r="R28" s="27"/>
       <c r="S28" s="27"/>
@@ -17944,7 +17944,7 @@
       <c r="BL28" s="27"/>
       <c r="BM28" s="86"/>
     </row>
-    <row r="29" ht="9">
+    <row r="29">
       <c r="A29" s="26"/>
       <c r="C29" s="64" t="s">
         <v>30</v>
@@ -18001,7 +18001,7 @@
       <c r="BL29" s="27"/>
       <c r="BM29" s="86"/>
     </row>
-    <row r="30" ht="14">
+    <row r="30">
       <c r="A30" s="26"/>
       <c r="D30" s="64" t="s">
         <v>246</v>
@@ -18064,7 +18064,7 @@
       <c r="BL30" s="27"/>
       <c r="BM30" s="86"/>
     </row>
-    <row r="31" ht="11">
+    <row r="31">
       <c r="A31" s="26"/>
       <c r="D31" s="64" t="s">
         <v>49</v>
@@ -18124,7 +18124,7 @@
       <c r="BL31" s="27"/>
       <c r="BM31" s="86"/>
     </row>
-    <row r="32" ht="9">
+    <row r="32">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
@@ -18196,7 +18196,7 @@
       <c r="BL32" s="27"/>
       <c r="BM32" s="86"/>
     </row>
-    <row r="33" ht="9">
+    <row r="33">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
       <c r="C33" s="28"/>
@@ -18268,7 +18268,7 @@
       <c r="BL33" s="27"/>
       <c r="BM33" s="86"/>
     </row>
-    <row r="34" ht="9">
+    <row r="34">
       <c r="A34" s="26"/>
       <c r="B34" s="27"/>
       <c r="C34" s="28"/>
@@ -18335,7 +18335,7 @@
       <c r="BL34" s="27"/>
       <c r="BM34" s="86"/>
     </row>
-    <row r="35" ht="9">
+    <row r="35">
       <c r="A35" s="26"/>
       <c r="B35" s="27"/>
       <c r="C35" s="28"/>
@@ -18402,7 +18402,7 @@
       <c r="BL35" s="27"/>
       <c r="BM35" s="86"/>
     </row>
-    <row r="36" ht="9">
+    <row r="36">
       <c r="A36" s="30"/>
       <c r="B36" s="91"/>
       <c r="C36" s="91"/>
@@ -18709,7 +18709,7 @@
     <col min="16155" max="16384" width="1.8984375" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" ht="10">
+    <row r="1" ht="9">
       <c r="A1" s="33"/>
       <c r="B1" s="34"/>
       <c r="C1" s="34"/>
@@ -18775,7 +18775,7 @@
       <c r="BK1" s="34"/>
       <c r="BL1" s="34"/>
     </row>
-    <row r="2" ht="10">
+    <row r="2" ht="9">
       <c r="A2" s="392" t="s">
         <v>22</v>
       </c>
@@ -18829,7 +18829,7 @@
       <c r="BK2" s="37"/>
       <c r="BL2" s="37"/>
     </row>
-    <row r="3" ht="10">
+    <row r="3" ht="9">
       <c r="A3" s="394"/>
       <c r="B3" s="395"/>
       <c r="C3" s="395"/>
@@ -19287,7 +19287,7 @@
       <c r="CW7" s="44"/>
       <c r="CX7" s="44"/>
     </row>
-    <row r="8" ht="103">
+    <row r="8" ht="102">
       <c r="A8" s="45">
         <v>1</v>
       </c>
@@ -19795,7 +19795,7 @@
       <c r="CW11" s="49"/>
       <c r="CX11" s="49"/>
     </row>
-    <row r="12" ht="10">
+    <row r="12" ht="9">
       <c r="A12" s="50">
         <v>5</v>
       </c>
@@ -19917,7 +19917,7 @@
       <c r="CW12" s="49"/>
       <c r="CX12" s="49"/>
     </row>
-    <row r="13" ht="10">
+    <row r="13" ht="9">
       <c r="A13" s="50">
         <v>6</v>
       </c>
@@ -20039,7 +20039,7 @@
       <c r="CW13" s="49"/>
       <c r="CX13" s="49"/>
     </row>
-    <row r="14" ht="10">
+    <row r="14" ht="9">
       <c r="A14" s="50">
         <v>7</v>
       </c>
@@ -20287,7 +20287,7 @@
       <c r="CW15" s="49"/>
       <c r="CX15" s="49"/>
     </row>
-    <row r="16" ht="10">
+    <row r="16" ht="9">
       <c r="A16" s="50">
         <v>9</v>
       </c>
@@ -20409,7 +20409,7 @@
       <c r="CW16" s="49"/>
       <c r="CX16" s="49"/>
     </row>
-    <row r="17" ht="10">
+    <row r="17" ht="9">
       <c r="A17" s="50">
         <v>10</v>
       </c>
@@ -20533,7 +20533,7 @@
       <c r="CW17" s="49"/>
       <c r="CX17" s="49"/>
     </row>
-    <row r="18" ht="10">
+    <row r="18" ht="9">
       <c r="A18" s="57">
         <v>11</v>
       </c>
@@ -20657,7 +20657,7 @@
       <c r="CW18" s="49"/>
       <c r="CX18" s="49"/>
     </row>
-    <row r="20" ht="10">
+    <row r="20" ht="9">
       <c r="W20" s="29"/>
     </row>
   </sheetData>
@@ -20846,8 +20846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BM113"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A13" zoomScaleNormal="120" zoomScaleSheetLayoutView="175" workbookViewId="0" zoomScale="120" tabSelected="1">
-      <selection activeCell="BW29" sqref="BW29" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A13" zoomScaleNormal="120" zoomScaleSheetLayoutView="175" workbookViewId="0" zoomScale="120">
+      <selection activeCell="AN31" sqref="AN31" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.8984375" defaultRowHeight="12" customHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34018,7 +34018,7 @@
       <c r="BL1" s="845"/>
       <c r="BM1" s="847"/>
     </row>
-    <row r="2" ht="10" customFormat="1" s="842">
+    <row r="2" ht="9" customFormat="1" s="842">
       <c r="A2" s="659" t="s">
         <v>27</v>
       </c>
@@ -34071,7 +34071,7 @@
       <c r="BL2" s="849"/>
       <c r="BM2" s="847"/>
     </row>
-    <row r="3" ht="10" customFormat="1" s="842">
+    <row r="3" ht="9" customFormat="1" s="842">
       <c r="A3" s="659"/>
       <c r="B3" s="660"/>
       <c r="C3" s="660"/>
@@ -34122,7 +34122,7 @@
       <c r="BL3" s="848"/>
       <c r="BM3" s="850"/>
     </row>
-    <row r="4" ht="10" customFormat="1" s="842">
+    <row r="4" ht="9" customFormat="1" s="842">
       <c r="A4" s="447" t="s">
         <v>16</v>
       </c>
@@ -34205,7 +34205,7 @@
       <c r="BL4" s="441"/>
       <c r="BM4" s="455"/>
     </row>
-    <row r="5" ht="10" customFormat="1" s="842">
+    <row r="5" ht="9" customFormat="1" s="842">
       <c r="A5" s="444" t="s">
         <v>18</v>
       </c>
@@ -34280,7 +34280,7 @@
       <c r="BL5" s="851"/>
       <c r="BM5" s="857"/>
     </row>
-    <row r="6" ht="10" customFormat="1" s="842">
+    <row r="6" ht="9" customFormat="1" s="842">
       <c r="A6" s="858" t="s">
         <v>192</v>
       </c>
@@ -34349,7 +34349,7 @@
       <c r="BL6" s="859"/>
       <c r="BM6" s="861"/>
     </row>
-    <row r="7" ht="10" customFormat="1" s="842">
+    <row r="7" ht="9" customFormat="1" s="842">
       <c r="A7" s="862" t="s">
         <v>89</v>
       </c>
@@ -34493,7 +34493,7 @@
       <c r="BL8" s="454"/>
       <c r="BM8" s="455"/>
     </row>
-    <row r="9" ht="10" customFormat="1" s="842">
+    <row r="9" ht="9" customFormat="1" s="842">
       <c r="A9" s="874" t="s">
         <v>46</v>
       </c>
@@ -34566,7 +34566,7 @@
       <c r="BL9" s="859"/>
       <c r="BM9" s="861"/>
     </row>
-    <row r="10" ht="10" customFormat="1" s="842">
+    <row r="10" ht="9" customFormat="1" s="842">
       <c r="A10" s="876"/>
       <c r="B10" s="842"/>
       <c r="C10" s="877"/>
@@ -34635,7 +34635,7 @@
       <c r="BL10" s="454"/>
       <c r="BM10" s="455"/>
     </row>
-    <row r="11" ht="10" customFormat="1" s="842">
+    <row r="11" ht="9" customFormat="1" s="842">
       <c r="A11" s="876"/>
       <c r="B11" s="842"/>
       <c r="C11" s="877"/>
@@ -34702,7 +34702,7 @@
       <c r="BL11" s="845"/>
       <c r="BM11" s="857"/>
     </row>
-    <row r="12" ht="10" customFormat="1" s="842">
+    <row r="12" ht="9" customFormat="1" s="842">
       <c r="A12" s="879" t="s">
         <v>287</v>
       </c>
@@ -34771,7 +34771,7 @@
       <c r="BL12" s="880"/>
       <c r="BM12" s="882"/>
     </row>
-    <row r="13" ht="10" customFormat="1" s="842">
+    <row r="13" ht="9" customFormat="1" s="842">
       <c r="A13" s="862" t="s">
         <v>29</v>
       </c>
@@ -34842,7 +34842,7 @@
       <c r="BL13" s="884"/>
       <c r="BM13" s="885"/>
     </row>
-    <row r="14" ht="10" customFormat="1" s="842">
+    <row r="14" ht="9" customFormat="1" s="842">
       <c r="A14" s="874" t="s">
         <v>49</v>
       </c>
@@ -34915,7 +34915,7 @@
       <c r="BL14" s="880"/>
       <c r="BM14" s="882"/>
     </row>
-    <row r="15" ht="10" customFormat="1" s="842">
+    <row r="15" ht="9" customFormat="1" s="842">
       <c r="A15" s="862"/>
       <c r="B15" s="887"/>
       <c r="C15" s="888"/>
@@ -34986,7 +34986,7 @@
       <c r="BL15" s="454"/>
       <c r="BM15" s="455"/>
     </row>
-    <row r="16" ht="10" customFormat="1" s="842">
+    <row r="16" ht="9" customFormat="1" s="842">
       <c r="A16" s="868" t="s">
         <v>50</v>
       </c>
@@ -35057,7 +35057,7 @@
       <c r="BL16" s="454"/>
       <c r="BM16" s="455"/>
     </row>
-    <row r="17" ht="10" customFormat="1" s="842">
+    <row r="17" ht="9" customFormat="1" s="842">
       <c r="A17" s="868" t="s">
         <v>51</v>
       </c>
@@ -35126,7 +35126,7 @@
       <c r="BL17" s="454"/>
       <c r="BM17" s="455"/>
     </row>
-    <row r="18" ht="10" customFormat="1" s="842">
+    <row r="18" ht="9" customFormat="1" s="842">
       <c r="J18" s="842"/>
       <c r="K18" s="842"/>
       <c r="L18" s="842"/>
@@ -35184,7 +35184,7 @@
       <c r="BL18" s="842"/>
       <c r="BM18" s="847"/>
     </row>
-    <row r="19" ht="10" customFormat="1" s="842">
+    <row r="19" ht="9" customFormat="1" s="842">
       <c r="B19" s="842" t="s">
         <v>110</v>
       </c>
@@ -35251,7 +35251,7 @@
       <c r="BL19" s="842"/>
       <c r="BM19" s="847"/>
     </row>
-    <row r="20" ht="10" customFormat="1" s="842">
+    <row r="20" ht="9" customFormat="1" s="842">
       <c r="A20" s="876"/>
       <c r="B20" s="889" t="s">
         <v>331</v>
@@ -35318,7 +35318,7 @@
       <c r="BL20" s="842"/>
       <c r="BM20" s="847"/>
     </row>
-    <row r="21" ht="10" customFormat="1" s="842">
+    <row r="21" ht="9" customFormat="1" s="842">
       <c r="A21" s="876"/>
       <c r="B21" s="889"/>
       <c r="C21" s="842"/>
@@ -35383,7 +35383,7 @@
       <c r="BL21" s="842"/>
       <c r="BM21" s="847"/>
     </row>
-    <row r="22" ht="10" customFormat="1" s="842">
+    <row r="22" ht="9" customFormat="1" s="842">
       <c r="A22" s="890" t="s">
         <v>332</v>
       </c>
@@ -35452,7 +35452,7 @@
       <c r="BL22" s="859"/>
       <c r="BM22" s="861"/>
     </row>
-    <row r="23" ht="10" customFormat="1" s="842">
+    <row r="23" ht="9" customFormat="1" s="842">
       <c r="A23" s="862" t="s">
         <v>29</v>
       </c>
@@ -35523,7 +35523,7 @@
       <c r="BL23" s="891"/>
       <c r="BM23" s="892"/>
     </row>
-    <row r="24" ht="10" customFormat="1" s="842">
+    <row r="24" ht="9" customFormat="1" s="842">
       <c r="A24" s="874" t="s">
         <v>49</v>
       </c>
@@ -35596,7 +35596,7 @@
       <c r="BL24" s="859"/>
       <c r="BM24" s="861"/>
     </row>
-    <row r="25" ht="10" customFormat="1" s="842">
+    <row r="25" ht="9" customFormat="1" s="842">
       <c r="A25" s="862"/>
       <c r="B25" s="887"/>
       <c r="C25" s="888"/>
@@ -35667,7 +35667,7 @@
       <c r="BL25" s="454"/>
       <c r="BM25" s="455"/>
     </row>
-    <row r="26" ht="10" customFormat="1" s="842">
+    <row r="26" ht="9" customFormat="1" s="842">
       <c r="A26" s="868" t="s">
         <v>50</v>
       </c>
@@ -35736,7 +35736,7 @@
       <c r="BL26" s="454"/>
       <c r="BM26" s="455"/>
     </row>
-    <row r="27" ht="10" customFormat="1" s="842">
+    <row r="27" ht="9" customFormat="1" s="842">
       <c r="A27" s="868" t="s">
         <v>51</v>
       </c>
@@ -35805,7 +35805,7 @@
       <c r="BL27" s="454"/>
       <c r="BM27" s="455"/>
     </row>
-    <row r="28" ht="10" customFormat="1" s="842">
+    <row r="28" ht="9" customFormat="1" s="842">
       <c r="B28" s="889"/>
       <c r="C28" s="842"/>
       <c r="E28" s="877"/>
@@ -35869,7 +35869,7 @@
       <c r="BL28" s="842"/>
       <c r="BM28" s="847"/>
     </row>
-    <row r="29" ht="10" customFormat="1" s="842">
+    <row r="29" ht="9" customFormat="1" s="842">
       <c r="B29" s="842" t="s">
         <v>110</v>
       </c>
@@ -35930,7 +35930,7 @@
       <c r="BL29" s="842"/>
       <c r="BM29" s="847"/>
     </row>
-    <row r="30" ht="10" customFormat="1" s="842">
+    <row r="30" ht="9" customFormat="1" s="842">
       <c r="B30" s="842"/>
       <c r="C30" s="889" t="s">
         <v>194</v>
@@ -35996,7 +35996,7 @@
       <c r="BL30" s="842"/>
       <c r="BM30" s="847"/>
     </row>
-    <row r="31" ht="10" customFormat="1" s="842">
+    <row r="31" ht="9" customFormat="1" s="842">
       <c r="B31" s="842"/>
       <c r="C31" s="889"/>
       <c r="E31" s="842"/>
@@ -36060,7 +36060,7 @@
       <c r="BL31" s="842"/>
       <c r="BM31" s="847"/>
     </row>
-    <row r="32" ht="10" customFormat="1" s="842">
+    <row r="32" ht="9" customFormat="1" s="842">
       <c r="A32" s="890" t="s">
         <v>333</v>
       </c>
@@ -36129,7 +36129,7 @@
       <c r="BL32" s="859"/>
       <c r="BM32" s="861"/>
     </row>
-    <row r="33" ht="10" customFormat="1" s="842">
+    <row r="33" ht="9" customFormat="1" s="842">
       <c r="A33" s="862" t="s">
         <v>29</v>
       </c>
@@ -36200,7 +36200,7 @@
       <c r="BL33" s="891"/>
       <c r="BM33" s="892"/>
     </row>
-    <row r="34" ht="10" customFormat="1" s="842">
+    <row r="34" ht="9" customFormat="1" s="842">
       <c r="A34" s="874" t="s">
         <v>49</v>
       </c>
@@ -36273,7 +36273,7 @@
       <c r="BL34" s="859"/>
       <c r="BM34" s="861"/>
     </row>
-    <row r="35" ht="10" customFormat="1" s="842">
+    <row r="35" ht="9" customFormat="1" s="842">
       <c r="A35" s="862"/>
       <c r="B35" s="887"/>
       <c r="C35" s="888"/>
@@ -36342,7 +36342,7 @@
       <c r="BL35" s="454"/>
       <c r="BM35" s="455"/>
     </row>
-    <row r="36" ht="10" customFormat="1" s="842">
+    <row r="36" ht="9" customFormat="1" s="842">
       <c r="A36" s="874" t="s">
         <v>50</v>
       </c>
@@ -36411,7 +36411,7 @@
       <c r="BL36" s="845"/>
       <c r="BM36" s="857"/>
     </row>
-    <row r="37" ht="10" customFormat="1" s="842">
+    <row r="37" ht="9" customFormat="1" s="842">
       <c r="A37" s="874" t="s">
         <v>51</v>
       </c>
@@ -36480,7 +36480,7 @@
       <c r="BL37" s="845"/>
       <c r="BM37" s="857"/>
     </row>
-    <row r="38" ht="10" customFormat="1" s="842">
+    <row r="38" ht="9" customFormat="1" s="842">
       <c r="A38" s="874"/>
       <c r="B38" s="845"/>
       <c r="C38" s="845"/>
@@ -36547,7 +36547,7 @@
       <c r="BL38" s="845"/>
       <c r="BM38" s="857"/>
     </row>
-    <row r="39" ht="10" customFormat="1" s="842">
+    <row r="39" ht="9" customFormat="1" s="842">
       <c r="A39" s="876"/>
       <c r="B39" s="842" t="s">
         <v>110</v>
@@ -36612,7 +36612,7 @@
       <c r="BL39" s="842"/>
       <c r="BM39" s="847"/>
     </row>
-    <row r="40" ht="10" customFormat="1" s="842">
+    <row r="40" ht="9" customFormat="1" s="842">
       <c r="A40" s="876"/>
       <c r="B40" s="842"/>
       <c r="C40" s="889" t="s">
@@ -36679,7 +36679,7 @@
       <c r="BL40" s="842"/>
       <c r="BM40" s="847"/>
     </row>
-    <row r="41" ht="10" customFormat="1" s="842">
+    <row r="41" ht="9" customFormat="1" s="842">
       <c r="A41" s="890" t="s">
         <v>334</v>
       </c>
@@ -36748,7 +36748,7 @@
       <c r="BL41" s="859"/>
       <c r="BM41" s="861"/>
     </row>
-    <row r="42" ht="10" customFormat="1" s="842">
+    <row r="42" ht="9" customFormat="1" s="842">
       <c r="A42" s="862" t="s">
         <v>29</v>
       </c>
@@ -36819,7 +36819,7 @@
       <c r="BL42" s="891"/>
       <c r="BM42" s="892"/>
     </row>
-    <row r="43" ht="10" customFormat="1" s="842">
+    <row r="43" ht="9" customFormat="1" s="842">
       <c r="A43" s="874" t="s">
         <v>49</v>
       </c>
@@ -36892,7 +36892,7 @@
       <c r="BL43" s="859"/>
       <c r="BM43" s="861"/>
     </row>
-    <row r="44" ht="10" customFormat="1" s="842">
+    <row r="44" ht="9" customFormat="1" s="842">
       <c r="A44" s="862"/>
       <c r="B44" s="887"/>
       <c r="C44" s="888"/>
@@ -36961,7 +36961,7 @@
       <c r="BL44" s="454"/>
       <c r="BM44" s="455"/>
     </row>
-    <row r="45" ht="10" customFormat="1" s="842">
+    <row r="45" ht="9" customFormat="1" s="842">
       <c r="A45" s="874" t="s">
         <v>50</v>
       </c>
@@ -37030,7 +37030,7 @@
       <c r="BL45" s="845"/>
       <c r="BM45" s="857"/>
     </row>
-    <row r="46" ht="10" customFormat="1" s="842">
+    <row r="46" ht="9" customFormat="1" s="842">
       <c r="A46" s="874" t="s">
         <v>51</v>
       </c>
@@ -37099,7 +37099,7 @@
       <c r="BL46" s="845"/>
       <c r="BM46" s="857"/>
     </row>
-    <row r="47" ht="10" customFormat="1" s="842">
+    <row r="47" ht="9" customFormat="1" s="842">
       <c r="A47" s="874"/>
       <c r="B47" s="845"/>
       <c r="C47" s="845"/>
@@ -37166,7 +37166,7 @@
       <c r="BL47" s="845"/>
       <c r="BM47" s="857"/>
     </row>
-    <row r="48" ht="10" customFormat="1" s="842">
+    <row r="48" ht="9" customFormat="1" s="842">
       <c r="A48" s="876"/>
       <c r="B48" s="842" t="s">
         <v>110</v>
@@ -37231,7 +37231,7 @@
       <c r="BL48" s="842"/>
       <c r="BM48" s="847"/>
     </row>
-    <row r="49" ht="10" customFormat="1" s="842">
+    <row r="49" ht="9" customFormat="1" s="842">
       <c r="A49" s="876"/>
       <c r="B49" s="842"/>
       <c r="C49" s="889" t="s">
@@ -37298,7 +37298,7 @@
       <c r="BL49" s="842"/>
       <c r="BM49" s="847"/>
     </row>
-    <row r="50" ht="10" customFormat="1" s="842">
+    <row r="50" ht="9" customFormat="1" s="842">
       <c r="A50" s="876"/>
       <c r="B50" s="842"/>
       <c r="C50" s="889"/>
@@ -37363,7 +37363,7 @@
       <c r="BL50" s="842"/>
       <c r="BM50" s="847"/>
     </row>
-    <row r="51" ht="10" customFormat="1" s="842">
+    <row r="51" ht="9" customFormat="1" s="842">
       <c r="A51" s="894" t="s">
         <v>197</v>
       </c>
@@ -37507,7 +37507,7 @@
       <c r="BL52" s="866"/>
       <c r="BM52" s="867"/>
     </row>
-    <row r="53" ht="10" customFormat="1" s="842">
+    <row r="53" ht="9" customFormat="1" s="842">
       <c r="A53" s="874" t="s">
         <v>46</v>
       </c>
@@ -37649,7 +37649,7 @@
       <c r="BL54" s="845"/>
       <c r="BM54" s="857"/>
     </row>
-    <row r="55" customHeight="1" ht="12" customFormat="1" s="843">
+    <row r="55" customFormat="1" s="843">
       <c r="A55" s="894" t="s">
         <v>274</v>
       </c>
@@ -37789,7 +37789,7 @@
       <c r="BL56" s="911"/>
       <c r="BM56" s="912"/>
     </row>
-    <row r="57" ht="10" customFormat="1" s="843">
+    <row r="57" ht="9" customFormat="1" s="843">
       <c r="A57" s="913" t="s">
         <v>49</v>
       </c>
@@ -37862,7 +37862,7 @@
       <c r="BL57" s="916"/>
       <c r="BM57" s="917"/>
     </row>
-    <row r="58" ht="10" customFormat="1" s="843">
+    <row r="58" ht="9" customFormat="1" s="843">
       <c r="A58" s="918"/>
       <c r="B58" s="843"/>
       <c r="C58" s="919"/>
@@ -37931,7 +37931,7 @@
       <c r="BL58" s="916"/>
       <c r="BM58" s="917"/>
     </row>
-    <row r="59" ht="10" customFormat="1" s="843">
+    <row r="59" ht="9" customFormat="1" s="843">
       <c r="A59" s="905"/>
       <c r="B59" s="922"/>
       <c r="C59" s="925"/>
@@ -37998,7 +37998,7 @@
       <c r="BL59" s="916"/>
       <c r="BM59" s="917"/>
     </row>
-    <row r="60" ht="10" customFormat="1" s="843">
+    <row r="60" ht="9" customFormat="1" s="843">
       <c r="A60" s="913" t="s">
         <v>50</v>
       </c>
@@ -38071,7 +38071,7 @@
       <c r="BL60" s="914"/>
       <c r="BM60" s="926"/>
     </row>
-    <row r="61" ht="10" customFormat="1" s="843">
+    <row r="61" ht="9" customFormat="1" s="843">
       <c r="A61" s="927" t="s">
         <v>51</v>
       </c>
@@ -38142,7 +38142,7 @@
       <c r="BL61" s="916"/>
       <c r="BM61" s="917"/>
     </row>
-    <row r="62" ht="10" customFormat="1" s="843">
+    <row r="62" ht="9" customFormat="1" s="843">
       <c r="A62" s="928" t="s">
         <v>340</v>
       </c>
@@ -38211,7 +38211,7 @@
       <c r="BL62" s="843"/>
       <c r="BM62" s="920"/>
     </row>
-    <row r="63" ht="10" customFormat="1" s="843">
+    <row r="63" ht="9" customFormat="1" s="843">
       <c r="A63" s="908" t="s">
         <v>271</v>
       </c>
@@ -38279,7 +38279,7 @@
       <c r="BL63" s="843"/>
       <c r="BM63" s="920"/>
     </row>
-    <row r="64" ht="10" customFormat="1" s="843">
+    <row r="64" ht="9" customFormat="1" s="843">
       <c r="A64" s="908" t="s">
         <v>272</v>
       </c>
@@ -38346,7 +38346,7 @@
       <c r="BL64" s="843"/>
       <c r="BM64" s="920"/>
     </row>
-    <row r="65" ht="10" customFormat="1" s="843">
+    <row r="65" ht="9" customFormat="1" s="843">
       <c r="A65" s="908" t="s">
         <v>212</v>
       </c>
@@ -38401,7 +38401,7 @@
       <c r="BL65" s="843"/>
       <c r="BM65" s="920"/>
     </row>
-    <row r="66" ht="10" customFormat="1" s="843">
+    <row r="66" ht="9" customFormat="1" s="843">
       <c r="A66" s="918"/>
       <c r="B66" s="843"/>
       <c r="C66" s="919"/>
@@ -38468,7 +38468,7 @@
       <c r="BL66" s="843"/>
       <c r="BM66" s="920"/>
     </row>
-    <row r="67" ht="10" customFormat="1" s="842">
+    <row r="67" ht="9" customFormat="1" s="842">
       <c r="A67" s="894" t="s">
         <v>339</v>
       </c>
@@ -38537,7 +38537,7 @@
       <c r="BL67" s="895"/>
       <c r="BM67" s="897"/>
     </row>
-    <row r="68" ht="10" customFormat="1" s="842">
+    <row r="68" ht="9" customFormat="1" s="842">
       <c r="A68" s="862" t="s">
         <v>109</v>
       </c>
@@ -38608,7 +38608,7 @@
       <c r="BL68" s="891"/>
       <c r="BM68" s="892"/>
     </row>
-    <row r="69" ht="10" customFormat="1" s="842">
+    <row r="69" ht="9" customFormat="1" s="842">
       <c r="A69" s="874" t="s">
         <v>49</v>
       </c>
@@ -38681,7 +38681,7 @@
       <c r="BL69" s="859"/>
       <c r="BM69" s="861"/>
     </row>
-    <row r="70" ht="10" customFormat="1" s="842">
+    <row r="70" ht="9" customFormat="1" s="842">
       <c r="A70" s="876"/>
       <c r="B70" s="842"/>
       <c r="C70" s="877"/>
@@ -38750,7 +38750,7 @@
       <c r="BL70" s="454"/>
       <c r="BM70" s="455"/>
     </row>
-    <row r="71" ht="10" customFormat="1" s="842">
+    <row r="71" ht="9" customFormat="1" s="842">
       <c r="A71" s="862"/>
       <c r="B71" s="887"/>
       <c r="C71" s="888"/>
@@ -38817,7 +38817,7 @@
       <c r="BL71" s="454"/>
       <c r="BM71" s="455"/>
     </row>
-    <row r="72" ht="10" customFormat="1" s="842">
+    <row r="72" ht="9" customFormat="1" s="842">
       <c r="A72" s="874" t="s">
         <v>50</v>
       </c>
@@ -38888,7 +38888,7 @@
       <c r="BL72" s="845"/>
       <c r="BM72" s="857"/>
     </row>
-    <row r="73" ht="10" customFormat="1" s="842">
+    <row r="73" ht="9" customFormat="1" s="842">
       <c r="A73" s="868" t="s">
         <v>51</v>
       </c>
@@ -38959,7 +38959,7 @@
       <c r="BL73" s="454"/>
       <c r="BM73" s="455"/>
     </row>
-    <row r="74" ht="10" customFormat="1" s="842">
+    <row r="74" ht="9" customFormat="1" s="842">
       <c r="A74" s="876"/>
       <c r="B74" s="883" t="s">
         <v>241</v>
@@ -39024,7 +39024,7 @@
       <c r="BL74" s="842"/>
       <c r="BM74" s="847"/>
     </row>
-    <row r="75" ht="10" customFormat="1" s="842">
+    <row r="75" ht="9" customFormat="1" s="842">
       <c r="A75" s="876"/>
       <c r="B75" s="842"/>
       <c r="D75" s="842" t="s">
@@ -39090,7 +39090,7 @@
       <c r="BL75" s="842"/>
       <c r="BM75" s="847"/>
     </row>
-    <row r="76" ht="10" customFormat="1" s="842">
+    <row r="76" ht="9" customFormat="1" s="842">
       <c r="A76" s="876"/>
       <c r="B76" s="842"/>
       <c r="D76" s="877"/>
@@ -39143,7 +39143,7 @@
       <c r="BB76" s="842"/>
       <c r="BM76" s="847"/>
     </row>
-    <row r="77" ht="10" customFormat="1" s="842">
+    <row r="77" ht="9" customFormat="1" s="842">
       <c r="A77" s="876"/>
       <c r="B77" s="842"/>
       <c r="D77" s="877"/>
@@ -39197,7 +39197,7 @@
       <c r="BL77" s="842"/>
       <c r="BM77" s="847"/>
     </row>
-    <row r="78" ht="10" customFormat="1" s="842">
+    <row r="78" ht="9" customFormat="1" s="842">
       <c r="A78" s="876"/>
       <c r="B78" s="842"/>
       <c r="D78" s="883" t="s">
@@ -39244,7 +39244,7 @@
       <c r="BL78" s="842"/>
       <c r="BM78" s="847"/>
     </row>
-    <row r="79" ht="10" customFormat="1" s="842">
+    <row r="79" ht="9" customFormat="1" s="842">
       <c r="A79" s="876"/>
       <c r="B79" s="842"/>
       <c r="D79" s="877"/>
@@ -39291,7 +39291,7 @@
       <c r="BL79" s="842"/>
       <c r="BM79" s="847"/>
     </row>
-    <row r="80" ht="10" customFormat="1" s="842">
+    <row r="80" ht="9" customFormat="1" s="842">
       <c r="A80" s="876"/>
       <c r="B80" s="842"/>
       <c r="D80" s="877"/>
@@ -39342,7 +39342,7 @@
       <c r="BL80" s="842"/>
       <c r="BM80" s="847"/>
     </row>
-    <row r="81" ht="10" customFormat="1" s="842">
+    <row r="81" ht="9" customFormat="1" s="842">
       <c r="A81" s="894" t="s">
         <v>201</v>
       </c>
@@ -39411,7 +39411,7 @@
       <c r="BL81" s="895"/>
       <c r="BM81" s="897"/>
     </row>
-    <row r="82" ht="10" customFormat="1" s="842">
+    <row r="82" ht="9" customFormat="1" s="842">
       <c r="A82" s="862" t="s">
         <v>109</v>
       </c>
@@ -39482,7 +39482,7 @@
       <c r="BL82" s="891"/>
       <c r="BM82" s="892"/>
     </row>
-    <row r="83" ht="10" customFormat="1" s="842">
+    <row r="83" ht="9" customFormat="1" s="842">
       <c r="A83" s="874" t="s">
         <v>49</v>
       </c>
@@ -39555,7 +39555,7 @@
       <c r="BL83" s="859"/>
       <c r="BM83" s="861"/>
     </row>
-    <row r="84" ht="10" customFormat="1" s="842">
+    <row r="84" ht="9" customFormat="1" s="842">
       <c r="A84" s="876"/>
       <c r="B84" s="842"/>
       <c r="C84" s="877"/>
@@ -39624,7 +39624,7 @@
       <c r="BL84" s="454"/>
       <c r="BM84" s="455"/>
     </row>
-    <row r="85" ht="10" customFormat="1" s="842">
+    <row r="85" ht="9" customFormat="1" s="842">
       <c r="A85" s="862"/>
       <c r="B85" s="887"/>
       <c r="C85" s="888"/>
@@ -39691,7 +39691,7 @@
       <c r="BL85" s="454"/>
       <c r="BM85" s="455"/>
     </row>
-    <row r="86" ht="10" customFormat="1" s="842">
+    <row r="86" ht="9" customFormat="1" s="842">
       <c r="A86" s="874" t="s">
         <v>50</v>
       </c>
@@ -39762,7 +39762,7 @@
       <c r="BL86" s="845"/>
       <c r="BM86" s="857"/>
     </row>
-    <row r="87" ht="10" customFormat="1" s="842">
+    <row r="87" ht="9" customFormat="1" s="842">
       <c r="A87" s="868" t="s">
         <v>51</v>
       </c>
@@ -39833,7 +39833,7 @@
       <c r="BL87" s="454"/>
       <c r="BM87" s="455"/>
     </row>
-    <row r="88" ht="10" customFormat="1" s="842">
+    <row r="88" ht="9" customFormat="1" s="842">
       <c r="A88" s="876"/>
       <c r="B88" s="842" t="s">
         <v>341</v>
@@ -39902,7 +39902,7 @@
       <c r="BL88" s="842"/>
       <c r="BM88" s="847"/>
     </row>
-    <row r="89" ht="10" customFormat="1" s="842">
+    <row r="89" ht="9" customFormat="1" s="842">
       <c r="A89" s="876"/>
       <c r="B89" s="883" t="s">
         <v>342</v>
@@ -39968,7 +39968,7 @@
       <c r="BL89" s="842"/>
       <c r="BM89" s="847"/>
     </row>
-    <row r="90" ht="10" customFormat="1" s="842">
+    <row r="90" ht="9" customFormat="1" s="842">
       <c r="A90" s="876"/>
       <c r="B90" s="883" t="s">
         <v>206</v>
@@ -40021,7 +40021,7 @@
       <c r="BL90" s="842"/>
       <c r="BM90" s="847"/>
     </row>
-    <row r="91" ht="10" customFormat="1" s="842">
+    <row r="91" ht="9" customFormat="1" s="842">
       <c r="A91" s="876"/>
       <c r="B91" s="883" t="s">
         <v>207</v>
@@ -40068,7 +40068,7 @@
       <c r="BL91" s="842"/>
       <c r="BM91" s="847"/>
     </row>
-    <row r="92" ht="10" customFormat="1" s="842">
+    <row r="92" ht="9" customFormat="1" s="842">
       <c r="A92" s="876"/>
       <c r="B92" s="883" t="s">
         <v>202</v>
@@ -40122,7 +40122,7 @@
       <c r="BL92" s="842"/>
       <c r="BM92" s="847"/>
     </row>
-    <row r="93" ht="10" customFormat="1" s="842">
+    <row r="93" ht="9" customFormat="1" s="842">
       <c r="A93" s="876"/>
       <c r="B93" s="883" t="s">
         <v>203</v>
@@ -40176,7 +40176,7 @@
       <c r="BL93" s="842"/>
       <c r="BM93" s="847"/>
     </row>
-    <row r="94" ht="10" customFormat="1" s="842">
+    <row r="94" ht="9" customFormat="1" s="842">
       <c r="A94" s="876"/>
       <c r="B94" s="883" t="s">
         <v>204</v>
@@ -40244,7 +40244,7 @@
       <c r="BL94" s="842"/>
       <c r="BM94" s="847"/>
     </row>
-    <row r="95" ht="10" customFormat="1" s="842">
+    <row r="95" ht="9" customFormat="1" s="842">
       <c r="A95" s="876"/>
       <c r="B95" s="883" t="s">
         <v>205</v>
@@ -40312,7 +40312,7 @@
       <c r="BL95" s="842"/>
       <c r="BM95" s="847"/>
     </row>
-    <row r="96" ht="10" customFormat="1" s="842">
+    <row r="96" ht="9" customFormat="1" s="842">
       <c r="A96" s="876"/>
       <c r="B96" s="883" t="s">
         <v>208</v>
@@ -40380,7 +40380,7 @@
       <c r="BL96" s="842"/>
       <c r="BM96" s="847"/>
     </row>
-    <row r="97" ht="10" customFormat="1" s="842">
+    <row r="97" ht="9" customFormat="1" s="842">
       <c r="A97" s="876"/>
       <c r="B97" s="883" t="s">
         <v>209</v>
@@ -40448,7 +40448,7 @@
       <c r="BL97" s="842"/>
       <c r="BM97" s="847"/>
     </row>
-    <row r="98" ht="10" customFormat="1" s="842">
+    <row r="98" ht="9" customFormat="1" s="842">
       <c r="A98" s="876"/>
       <c r="B98" s="883" t="s">
         <v>210</v>
@@ -40516,7 +40516,7 @@
       <c r="BL98" s="842"/>
       <c r="BM98" s="847"/>
     </row>
-    <row r="99" ht="10" customFormat="1" s="842">
+    <row r="99" ht="9" customFormat="1" s="842">
       <c r="A99" s="876"/>
       <c r="B99" s="883" t="s">
         <v>211</v>
@@ -40584,7 +40584,7 @@
       <c r="BL99" s="842"/>
       <c r="BM99" s="847"/>
     </row>
-    <row r="100" ht="10" customFormat="1" s="842">
+    <row r="100" ht="9" customFormat="1" s="842">
       <c r="A100" s="876"/>
       <c r="B100" s="883" t="s">
         <v>212</v>
@@ -40652,7 +40652,7 @@
       <c r="BL100" s="842"/>
       <c r="BM100" s="847"/>
     </row>
-    <row r="101" ht="10" customFormat="1" s="842">
+    <row r="101" ht="9" customFormat="1" s="842">
       <c r="A101" s="876"/>
       <c r="B101" s="842"/>
       <c r="D101" s="877"/>
@@ -40703,7 +40703,7 @@
       <c r="BL101" s="842"/>
       <c r="BM101" s="847"/>
     </row>
-    <row r="102" ht="10" customFormat="1" s="843">
+    <row r="102" ht="9" customFormat="1" s="843">
       <c r="A102" s="894" t="s">
         <v>269</v>
       </c>
@@ -40772,7 +40772,7 @@
       <c r="BL102" s="895"/>
       <c r="BM102" s="897"/>
     </row>
-    <row r="103" ht="10" customFormat="1" s="843">
+    <row r="103" ht="9" customFormat="1" s="843">
       <c r="A103" s="905" t="s">
         <v>109</v>
       </c>
@@ -40843,7 +40843,7 @@
       <c r="BL103" s="910"/>
       <c r="BM103" s="933"/>
     </row>
-    <row r="104" ht="10" customFormat="1" s="843">
+    <row r="104" ht="9" customFormat="1" s="843">
       <c r="A104" s="913" t="s">
         <v>49</v>
       </c>
@@ -40916,7 +40916,7 @@
       <c r="BL104" s="859"/>
       <c r="BM104" s="861"/>
     </row>
-    <row r="105" ht="10" customFormat="1" s="843">
+    <row r="105" ht="9" customFormat="1" s="843">
       <c r="A105" s="918"/>
       <c r="B105" s="843"/>
       <c r="C105" s="919"/>
@@ -40985,7 +40985,7 @@
       <c r="BL105" s="922"/>
       <c r="BM105" s="923"/>
     </row>
-    <row r="106" ht="10" customFormat="1" s="843">
+    <row r="106" ht="9" customFormat="1" s="843">
       <c r="A106" s="905"/>
       <c r="B106" s="922"/>
       <c r="C106" s="925"/>
@@ -41052,7 +41052,7 @@
       <c r="BL106" s="916"/>
       <c r="BM106" s="917"/>
     </row>
-    <row r="107" ht="10" customFormat="1" s="843">
+    <row r="107" ht="9" customFormat="1" s="843">
       <c r="A107" s="913" t="s">
         <v>50</v>
       </c>
@@ -41123,7 +41123,7 @@
       <c r="BL107" s="914"/>
       <c r="BM107" s="926"/>
     </row>
-    <row r="108" ht="10" customFormat="1" s="843">
+    <row r="108" ht="9" customFormat="1" s="843">
       <c r="A108" s="913" t="s">
         <v>51</v>
       </c>
@@ -41194,7 +41194,7 @@
       <c r="BL108" s="914"/>
       <c r="BM108" s="926"/>
     </row>
-    <row r="109" ht="10" customFormat="1" s="843">
+    <row r="109" ht="9" customFormat="1" s="843">
       <c r="A109" s="913" t="s">
         <v>267</v>
       </c>
@@ -41263,7 +41263,7 @@
       <c r="BL109" s="914"/>
       <c r="BM109" s="926"/>
     </row>
-    <row r="110" ht="10" customFormat="1" s="843">
+    <row r="110" ht="9" customFormat="1" s="843">
       <c r="A110" s="932" t="s">
         <v>260</v>
       </c>
@@ -41316,7 +41316,7 @@
       <c r="BL110" s="843"/>
       <c r="BM110" s="920"/>
     </row>
-    <row r="111" ht="10" customFormat="1" s="843">
+    <row r="111" ht="9" customFormat="1" s="843">
       <c r="A111" s="932" t="s">
         <v>261</v>
       </c>
@@ -41369,7 +41369,7 @@
       <c r="BL111" s="843"/>
       <c r="BM111" s="920"/>
     </row>
-    <row r="112" ht="10" customFormat="1" s="843">
+    <row r="112" ht="9" customFormat="1" s="843">
       <c r="A112" s="932" t="s">
         <v>262</v>
       </c>
@@ -41422,7 +41422,7 @@
       <c r="BL112" s="843"/>
       <c r="BM112" s="920"/>
     </row>
-    <row r="113" ht="10" customFormat="1" s="843">
+    <row r="113" ht="9" customFormat="1" s="843">
       <c r="A113" s="932" t="s">
         <v>268</v>
       </c>
@@ -41475,7 +41475,7 @@
       <c r="BL113" s="843"/>
       <c r="BM113" s="920"/>
     </row>
-    <row r="114" ht="10" customFormat="1" s="843">
+    <row r="114" ht="9" customFormat="1" s="843">
       <c r="A114" s="905"/>
       <c r="B114" s="922"/>
       <c r="C114" s="922"/>
@@ -41542,47 +41542,47 @@
       <c r="BL114" s="922"/>
       <c r="BM114" s="923"/>
     </row>
-    <row r="115" ht="10" customFormat="1" s="842"/>
-    <row r="116" ht="10" customFormat="1" s="842">
+    <row r="115" ht="9" customFormat="1" s="842"/>
+    <row r="116" ht="9" customFormat="1" s="842">
       <c r="U116" s="883"/>
     </row>
-    <row r="117" ht="10" customFormat="1" s="842"/>
-    <row r="118" ht="10" customFormat="1" s="842"/>
-    <row r="119" ht="10" customFormat="1" s="842"/>
-    <row r="120" ht="10" customFormat="1" s="842"/>
-    <row r="121" ht="10" customFormat="1" s="842"/>
-    <row r="122" ht="10" customFormat="1" s="842"/>
-    <row r="123" ht="10" customFormat="1" s="842"/>
-    <row r="124" ht="10" customFormat="1" s="842"/>
-    <row r="125" ht="10" customFormat="1" s="842"/>
-    <row r="126" ht="10" customFormat="1" s="842"/>
-    <row r="127" ht="10" customFormat="1" s="842"/>
-    <row r="128" ht="10" customFormat="1" s="842"/>
-    <row r="129" ht="10" customFormat="1" s="842"/>
-    <row r="130" ht="10" customFormat="1" s="842"/>
-    <row r="131" ht="10" customFormat="1" s="842"/>
-    <row r="132" ht="10" customFormat="1" s="842"/>
-    <row r="133" ht="10" customFormat="1" s="842"/>
-    <row r="134" ht="10" customFormat="1" s="842"/>
-    <row r="135" ht="10" customFormat="1" s="842"/>
-    <row r="136" ht="10" customFormat="1" s="842"/>
-    <row r="137" ht="10" customFormat="1" s="842"/>
-    <row r="138" ht="10" customFormat="1" s="842"/>
-    <row r="139" ht="10" customFormat="1" s="842"/>
-    <row r="140" ht="10" customFormat="1" s="842"/>
-    <row r="141" ht="10" customFormat="1" s="842"/>
-    <row r="142" ht="10" customFormat="1" s="842"/>
-    <row r="143" ht="10" customFormat="1" s="842"/>
-    <row r="144" ht="10" customFormat="1" s="842"/>
-    <row r="145" ht="10" customFormat="1" s="842"/>
-    <row r="146" ht="10" customFormat="1" s="842"/>
-    <row r="147" ht="10" customFormat="1" s="842"/>
-    <row r="148" ht="10" customFormat="1" s="842"/>
-    <row r="149" ht="10" customFormat="1" s="842"/>
-    <row r="150" ht="10" customFormat="1" s="842"/>
-    <row r="151" ht="10" customFormat="1" s="842"/>
-    <row r="152" ht="10" customFormat="1" s="842"/>
-    <row r="153" ht="10" customFormat="1" s="842"/>
+    <row r="117" ht="9" customFormat="1" s="842"/>
+    <row r="118" ht="9" customFormat="1" s="842"/>
+    <row r="119" ht="9" customFormat="1" s="842"/>
+    <row r="120" ht="9" customFormat="1" s="842"/>
+    <row r="121" ht="9" customFormat="1" s="842"/>
+    <row r="122" ht="9" customFormat="1" s="842"/>
+    <row r="123" ht="9" customFormat="1" s="842"/>
+    <row r="124" ht="9" customFormat="1" s="842"/>
+    <row r="125" ht="9" customFormat="1" s="842"/>
+    <row r="126" ht="9" customFormat="1" s="842"/>
+    <row r="127" ht="9" customFormat="1" s="842"/>
+    <row r="128" ht="9" customFormat="1" s="842"/>
+    <row r="129" ht="9" customFormat="1" s="842"/>
+    <row r="130" ht="9" customFormat="1" s="842"/>
+    <row r="131" ht="9" customFormat="1" s="842"/>
+    <row r="132" ht="9" customFormat="1" s="842"/>
+    <row r="133" ht="9" customFormat="1" s="842"/>
+    <row r="134" ht="9" customFormat="1" s="842"/>
+    <row r="135" ht="9" customFormat="1" s="842"/>
+    <row r="136" ht="9" customFormat="1" s="842"/>
+    <row r="137" ht="9" customFormat="1" s="842"/>
+    <row r="138" ht="9" customFormat="1" s="842"/>
+    <row r="139" ht="9" customFormat="1" s="842"/>
+    <row r="140" ht="9" customFormat="1" s="842"/>
+    <row r="141" ht="9" customFormat="1" s="842"/>
+    <row r="142" ht="9" customFormat="1" s="842"/>
+    <row r="143" ht="9" customFormat="1" s="842"/>
+    <row r="144" ht="9" customFormat="1" s="842"/>
+    <row r="145" ht="9" customFormat="1" s="842"/>
+    <row r="146" ht="9" customFormat="1" s="842"/>
+    <row r="147" ht="9" customFormat="1" s="842"/>
+    <row r="148" ht="9" customFormat="1" s="842"/>
+    <row r="149" ht="9" customFormat="1" s="842"/>
+    <row r="150" ht="9" customFormat="1" s="842"/>
+    <row r="151" ht="9" customFormat="1" s="842"/>
+    <row r="152" ht="9" customFormat="1" s="842"/>
+    <row r="153" ht="9" customFormat="1" s="842"/>
   </sheetData>
   <mergeCells count="25">
     <mergeCell ref="A2:Z3"/>
@@ -41964,7 +41964,7 @@
     <col min="16195" max="16384" width="1.8984375" style="766"/>
   </cols>
   <sheetData>
-    <row r="1" ht="10">
+    <row r="1" ht="9">
       <c r="A1" s="762"/>
       <c r="B1" s="763"/>
       <c r="C1" s="763"/>
@@ -42032,7 +42032,7 @@
       <c r="BM1" s="763"/>
       <c r="BN1" s="765"/>
     </row>
-    <row r="2" ht="10">
+    <row r="2" ht="9">
       <c r="A2" s="767" t="s">
         <v>54</v>
       </c>
@@ -42088,7 +42088,7 @@
       <c r="BM2" s="770"/>
       <c r="BN2" s="771"/>
     </row>
-    <row r="3" ht="10">
+    <row r="3" ht="9">
       <c r="A3" s="772"/>
       <c r="B3" s="773"/>
       <c r="C3" s="773"/>
@@ -42316,7 +42316,7 @@
       <c r="BM5" s="803"/>
       <c r="BN5" s="804"/>
     </row>
-    <row r="6" ht="10" customFormat="1" s="818">
+    <row r="6" ht="9" customFormat="1" s="818">
       <c r="A6" s="808" t="s">
         <v>26</v>
       </c>
@@ -43052,7 +43052,7 @@
       <c r="BM15" s="835"/>
       <c r="BN15" s="835"/>
     </row>
-    <row r="16" ht="10" customFormat="1" s="836">
+    <row r="16" ht="9" customFormat="1" s="836">
       <c r="A16" s="834"/>
       <c r="B16" s="834"/>
       <c r="C16" s="834"/>
@@ -43120,7 +43120,7 @@
       <c r="BM16" s="835"/>
       <c r="BN16" s="835"/>
     </row>
-    <row r="17" ht="10" customFormat="1" s="770">
+    <row r="17" ht="9" customFormat="1" s="770">
       <c r="A17" s="837"/>
       <c r="B17" s="837"/>
       <c r="C17" s="837"/>
@@ -43188,7 +43188,7 @@
       <c r="BM17" s="838"/>
       <c r="BN17" s="838"/>
     </row>
-    <row r="18" ht="10">
+    <row r="18" ht="9">
       <c r="A18" s="837"/>
       <c r="B18" s="837"/>
       <c r="C18" s="837"/>
@@ -43256,7 +43256,7 @@
       <c r="BM18" s="839"/>
       <c r="BN18" s="839"/>
     </row>
-    <row r="19" ht="10">
+    <row r="19" ht="9">
       <c r="A19" s="837"/>
       <c r="B19" s="837"/>
       <c r="C19" s="837"/>
@@ -43324,7 +43324,7 @@
       <c r="BM19" s="839"/>
       <c r="BN19" s="839"/>
     </row>
-    <row r="20" ht="10">
+    <row r="20" ht="9">
       <c r="A20" s="837"/>
       <c r="B20" s="837"/>
       <c r="C20" s="837"/>
@@ -43392,7 +43392,7 @@
       <c r="BM20" s="839"/>
       <c r="BN20" s="839"/>
     </row>
-    <row r="21" ht="10">
+    <row r="21" ht="9">
       <c r="A21" s="837"/>
       <c r="B21" s="837"/>
       <c r="C21" s="837"/>
@@ -43460,7 +43460,7 @@
       <c r="BM21" s="839"/>
       <c r="BN21" s="839"/>
     </row>
-    <row r="22" ht="10">
+    <row r="22" ht="9">
       <c r="A22" s="837"/>
       <c r="B22" s="837"/>
       <c r="C22" s="837"/>
@@ -43528,7 +43528,7 @@
       <c r="BM22" s="839"/>
       <c r="BN22" s="839"/>
     </row>
-    <row r="23" ht="10">
+    <row r="23" ht="9">
       <c r="A23" s="837"/>
       <c r="B23" s="837"/>
       <c r="C23" s="837"/>
@@ -43596,7 +43596,7 @@
       <c r="BM23" s="839"/>
       <c r="BN23" s="839"/>
     </row>
-    <row r="24" ht="10">
+    <row r="24" ht="9">
       <c r="A24" s="837"/>
       <c r="B24" s="837"/>
       <c r="C24" s="837"/>
@@ -43664,7 +43664,7 @@
       <c r="BM24" s="839"/>
       <c r="BN24" s="839"/>
     </row>
-    <row r="25" ht="10">
+    <row r="25" ht="9">
       <c r="A25" s="837"/>
       <c r="B25" s="837"/>
       <c r="C25" s="837"/>
@@ -43732,7 +43732,7 @@
       <c r="BM25" s="839"/>
       <c r="BN25" s="839"/>
     </row>
-    <row r="26" ht="10">
+    <row r="26" ht="9">
       <c r="A26" s="837"/>
       <c r="B26" s="837"/>
       <c r="C26" s="837"/>
@@ -43800,7 +43800,7 @@
       <c r="BM26" s="839"/>
       <c r="BN26" s="839"/>
     </row>
-    <row r="27" ht="10">
+    <row r="27" ht="9">
       <c r="A27" s="837"/>
       <c r="B27" s="837"/>
       <c r="C27" s="837"/>
@@ -43868,7 +43868,7 @@
       <c r="BM27" s="839"/>
       <c r="BN27" s="839"/>
     </row>
-    <row r="28" ht="10">
+    <row r="28" ht="9">
       <c r="A28" s="837"/>
       <c r="B28" s="837"/>
       <c r="C28" s="837"/>
@@ -43936,7 +43936,7 @@
       <c r="BM28" s="839"/>
       <c r="BN28" s="839"/>
     </row>
-    <row r="29" ht="10">
+    <row r="29" ht="9">
       <c r="A29" s="837"/>
       <c r="B29" s="837"/>
       <c r="C29" s="837"/>
@@ -44004,7 +44004,7 @@
       <c r="BM29" s="839"/>
       <c r="BN29" s="839"/>
     </row>
-    <row r="30" ht="10">
+    <row r="30" ht="9">
       <c r="A30" s="837"/>
       <c r="B30" s="837"/>
       <c r="C30" s="837"/>
@@ -44072,7 +44072,7 @@
       <c r="BM30" s="839"/>
       <c r="BN30" s="839"/>
     </row>
-    <row r="31" ht="10">
+    <row r="31" ht="9">
       <c r="A31" s="837"/>
       <c r="B31" s="837"/>
       <c r="C31" s="837"/>
@@ -44140,7 +44140,7 @@
       <c r="BM31" s="839"/>
       <c r="BN31" s="839"/>
     </row>
-    <row r="32" ht="10">
+    <row r="32" ht="9">
       <c r="A32" s="837"/>
       <c r="B32" s="837"/>
       <c r="C32" s="837"/>
@@ -44208,7 +44208,7 @@
       <c r="BM32" s="839"/>
       <c r="BN32" s="839"/>
     </row>
-    <row r="33" ht="10">
+    <row r="33" ht="9">
       <c r="A33" s="837"/>
       <c r="B33" s="837"/>
       <c r="C33" s="837"/>
@@ -44276,7 +44276,7 @@
       <c r="BM33" s="839"/>
       <c r="BN33" s="839"/>
     </row>
-    <row r="34" ht="10">
+    <row r="34" ht="9">
       <c r="A34" s="837"/>
       <c r="B34" s="837"/>
       <c r="C34" s="837"/>
@@ -44344,7 +44344,7 @@
       <c r="BM34" s="839"/>
       <c r="BN34" s="839"/>
     </row>
-    <row r="35" ht="10">
+    <row r="35" ht="9">
       <c r="A35" s="837"/>
       <c r="B35" s="837"/>
       <c r="C35" s="837"/>
@@ -44412,7 +44412,7 @@
       <c r="BM35" s="839"/>
       <c r="BN35" s="839"/>
     </row>
-    <row r="36" ht="10">
+    <row r="36" ht="9">
       <c r="A36" s="837"/>
       <c r="B36" s="837"/>
       <c r="C36" s="837"/>
@@ -44480,7 +44480,7 @@
       <c r="BM36" s="839"/>
       <c r="BN36" s="839"/>
     </row>
-    <row r="37" ht="10">
+    <row r="37" ht="9">
       <c r="A37" s="837"/>
       <c r="B37" s="837"/>
       <c r="C37" s="837"/>
@@ -44548,7 +44548,7 @@
       <c r="BM37" s="839"/>
       <c r="BN37" s="839"/>
     </row>
-    <row r="38" ht="10">
+    <row r="38" ht="9">
       <c r="A38" s="837"/>
       <c r="B38" s="837"/>
       <c r="C38" s="837"/>
@@ -44616,7 +44616,7 @@
       <c r="BM38" s="839"/>
       <c r="BN38" s="839"/>
     </row>
-    <row r="40" ht="10"/>
+    <row r="40" ht="9"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A2:AA3"/>
@@ -44985,7 +44985,7 @@
     <col min="16195" max="16384" width="1.8984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="10">
+    <row r="1" ht="9">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -45053,7 +45053,7 @@
       <c r="BM1" s="4"/>
       <c r="BN1" s="14"/>
     </row>
-    <row r="2" ht="10">
+    <row r="2" ht="9">
       <c r="A2" s="461" t="s">
         <v>55</v>
       </c>
@@ -45109,7 +45109,7 @@
       <c r="BM2" s="13"/>
       <c r="BN2" s="15"/>
     </row>
-    <row r="3" ht="10">
+    <row r="3" ht="9">
       <c r="A3" s="463"/>
       <c r="B3" s="464"/>
       <c r="C3" s="464"/>
@@ -45337,7 +45337,7 @@
       <c r="BM5" s="483"/>
       <c r="BN5" s="484"/>
     </row>
-    <row r="6" ht="10">
+    <row r="6" ht="9">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -45406,7 +45406,7 @@
       <c r="BN6" s="20"/>
       <c r="BO6" s="22"/>
     </row>
-    <row r="7" ht="10">
+    <row r="7" ht="9">
       <c r="A7" s="21"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -45475,7 +45475,7 @@
       <c r="BN7" s="12"/>
       <c r="BO7" s="22"/>
     </row>
-    <row r="8" ht="10">
+    <row r="8" ht="9">
       <c r="A8" s="21"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -45544,7 +45544,7 @@
       <c r="BN8" s="12"/>
       <c r="BO8" s="22"/>
     </row>
-    <row r="9" ht="10">
+    <row r="9" ht="9">
       <c r="A9" s="21"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -45613,7 +45613,7 @@
       <c r="BN9" s="12"/>
       <c r="BO9" s="22"/>
     </row>
-    <row r="10" ht="10">
+    <row r="10" ht="9">
       <c r="A10" s="21"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -45682,7 +45682,7 @@
       <c r="BN10" s="12"/>
       <c r="BO10" s="22"/>
     </row>
-    <row r="11" ht="10">
+    <row r="11" ht="9">
       <c r="A11" s="21"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -45751,7 +45751,7 @@
       <c r="BN11" s="12"/>
       <c r="BO11" s="22"/>
     </row>
-    <row r="12" ht="10">
+    <row r="12" ht="9">
       <c r="A12" s="21"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -45820,7 +45820,7 @@
       <c r="BN12" s="12"/>
       <c r="BO12" s="22"/>
     </row>
-    <row r="13" ht="10">
+    <row r="13" ht="9">
       <c r="A13" s="21"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -45889,7 +45889,7 @@
       <c r="BN13" s="12"/>
       <c r="BO13" s="22"/>
     </row>
-    <row r="14" ht="10">
+    <row r="14" ht="9">
       <c r="A14" s="21"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -45958,7 +45958,7 @@
       <c r="BN14" s="12"/>
       <c r="BO14" s="22"/>
     </row>
-    <row r="15" ht="10">
+    <row r="15" ht="9">
       <c r="A15" s="21"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -46027,7 +46027,7 @@
       <c r="BN15" s="12"/>
       <c r="BO15" s="22"/>
     </row>
-    <row r="16" ht="10">
+    <row r="16" ht="9">
       <c r="A16" s="21"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -46096,7 +46096,7 @@
       <c r="BN16" s="12"/>
       <c r="BO16" s="22"/>
     </row>
-    <row r="17" ht="10">
+    <row r="17" ht="9">
       <c r="A17" s="21"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -46165,7 +46165,7 @@
       <c r="BN17" s="12"/>
       <c r="BO17" s="22"/>
     </row>
-    <row r="18" ht="10">
+    <row r="18" ht="9">
       <c r="A18" s="21"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -46234,7 +46234,7 @@
       <c r="BN18" s="12"/>
       <c r="BO18" s="22"/>
     </row>
-    <row r="19" ht="10">
+    <row r="19" ht="9">
       <c r="A19" s="21"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -46303,7 +46303,7 @@
       <c r="BN19" s="12"/>
       <c r="BO19" s="22"/>
     </row>
-    <row r="20" ht="10">
+    <row r="20" ht="9">
       <c r="A20" s="21"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -46372,7 +46372,7 @@
       <c r="BN20" s="12"/>
       <c r="BO20" s="22"/>
     </row>
-    <row r="21" ht="10">
+    <row r="21" ht="9">
       <c r="A21" s="21"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -46441,7 +46441,7 @@
       <c r="BN21" s="12"/>
       <c r="BO21" s="22"/>
     </row>
-    <row r="22" ht="10">
+    <row r="22" ht="9">
       <c r="A22" s="21"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -46510,7 +46510,7 @@
       <c r="BN22" s="12"/>
       <c r="BO22" s="22"/>
     </row>
-    <row r="23" ht="10">
+    <row r="23" ht="9">
       <c r="A23" s="21"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -46579,7 +46579,7 @@
       <c r="BN23" s="12"/>
       <c r="BO23" s="22"/>
     </row>
-    <row r="24" ht="10">
+    <row r="24" ht="9">
       <c r="A24" s="21"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -46648,7 +46648,7 @@
       <c r="BN24" s="12"/>
       <c r="BO24" s="22"/>
     </row>
-    <row r="25" ht="10">
+    <row r="25" ht="9">
       <c r="A25" s="21"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -46717,56 +46717,56 @@
       <c r="BN25" s="12"/>
       <c r="BO25" s="22"/>
     </row>
-    <row r="26" ht="10">
+    <row r="26" ht="9">
       <c r="A26" s="22"/>
       <c r="BO26" s="22"/>
     </row>
-    <row r="27" ht="10">
+    <row r="27" ht="9">
       <c r="A27" s="22"/>
       <c r="P27" s="7"/>
       <c r="BO27" s="22"/>
     </row>
-    <row r="28" ht="10">
+    <row r="28" ht="9">
       <c r="A28" s="22"/>
       <c r="BO28" s="22"/>
     </row>
-    <row r="29" ht="10">
+    <row r="29" ht="9">
       <c r="A29" s="22"/>
       <c r="BO29" s="22"/>
     </row>
-    <row r="30" ht="10">
+    <row r="30" ht="9">
       <c r="A30" s="22"/>
       <c r="BO30" s="22"/>
     </row>
-    <row r="31" ht="10">
+    <row r="31" ht="9">
       <c r="A31" s="22"/>
       <c r="BO31" s="22"/>
     </row>
-    <row r="32" ht="10">
+    <row r="32" ht="9">
       <c r="A32" s="22"/>
       <c r="BO32" s="22"/>
     </row>
-    <row r="33" ht="10">
+    <row r="33" ht="9">
       <c r="A33" s="22"/>
       <c r="BO33" s="22"/>
     </row>
-    <row r="34" ht="10">
+    <row r="34" ht="9">
       <c r="A34" s="22"/>
       <c r="BO34" s="22"/>
     </row>
-    <row r="35" ht="10">
+    <row r="35" ht="9">
       <c r="A35" s="22"/>
       <c r="BO35" s="22"/>
     </row>
-    <row r="36" ht="10">
+    <row r="36" ht="9">
       <c r="A36" s="22"/>
       <c r="BO36" s="22"/>
     </row>
-    <row r="37" ht="10">
+    <row r="37" ht="9">
       <c r="A37" s="22"/>
       <c r="BO37" s="22"/>
     </row>
-    <row r="38" ht="10">
+    <row r="38" ht="9">
       <c r="A38" s="23"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>

--- a/DOC/詳細設計書/詳細設計_emsm_基本給更新.xlsx
+++ b/DOC/詳細設計書/詳細設計_emsm_基本給更新.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76886F3F-487A-42D0-A7D5-F9AF6B01B4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5915" yWindow="0" windowWidth="15441" windowHeight="11332" tabRatio="793" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5915" yWindow="0" windowWidth="15441" windowHeight="11332" tabRatio="793" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -1892,6 +1892,15 @@
   <si>
     <t>ggggg</t>
   </si>
+  <si>
+    <t>基本給は数字ではない　”本数値のみを入力してください。”　と　メッセージ表示</t>
+  </si>
+  <si>
+    <t>基本給は数字ではない　”基本給に数値のみを入力してください。”　と　メッセージ表示</t>
+  </si>
+  <si>
+    <t>基本給は数字ではないの時　”基本給に数値のみを入力してください。”　と　メッセージ表示</t>
+  </si>
 </sst>
 </file>
 
@@ -7025,8 +7034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="990600" y="1019175"/>
-          <a:ext cx="5314950" cy="1143000"/>
+          <a:off x="876300" y="923925"/>
+          <a:ext cx="4695825" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
@@ -15697,8 +15706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BM36"/>
   <sheetViews>
-    <sheetView showGridLines="false" view="pageBreakPreview" topLeftCell="A1" zoomScale="140" zoomScaleNormal="145" zoomScaleSheetLayoutView="140" workbookViewId="0" tabSelected="1">
-      <selection activeCell="AF17" sqref="AF17" activeCellId="0"/>
+    <sheetView showGridLines="false" view="pageBreakPreview" topLeftCell="A1" zoomScale="140" zoomScaleNormal="145" zoomScaleSheetLayoutView="140" workbookViewId="0">
+      <selection activeCell="AS15" sqref="AS15" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.8984375" defaultRowHeight="10.5" customHeight="true" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18510,7 +18519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:CX20"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" workbookViewId="0">
+    <sheetView showGridLines="false" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="130" zoomScaleSheetLayoutView="120" workbookViewId="0" topLeftCell="A4">
       <selection activeCell="BO18" sqref="BO18:BS18"/>
     </sheetView>
   </sheetViews>
@@ -20846,7 +20855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BM113"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A13" zoomScaleNormal="120" zoomScaleSheetLayoutView="175" workbookViewId="0" zoomScale="120">
+    <sheetView showGridLines="false" topLeftCell="A70" zoomScaleNormal="120" zoomScaleSheetLayoutView="175" workbookViewId="0" zoomScale="120">
       <selection activeCell="AN31" sqref="AN31" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -25918,7 +25927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA26DEB1-69FD-4597-8293-6CB51E00537C}">
   <dimension ref="A1:WWP146"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A88" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
+    <sheetView showGridLines="false" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="175" workbookViewId="0">
       <selection activeCell="CI106" sqref="CI106" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -33625,8 +33634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239138D3-0081-4D77-B69B-1D62F415D657}">
   <dimension ref="A1:BM153"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A85" zoomScaleNormal="120" zoomScaleSheetLayoutView="175" workbookViewId="0" zoomScale="120">
-      <selection activeCell="BX98" sqref="BX98" activeCellId="0"/>
+    <sheetView showGridLines="false" topLeftCell="A73" zoomScaleNormal="120" zoomScaleSheetLayoutView="175" workbookViewId="0" zoomScale="120">
+      <selection activeCell="CG87" sqref="CG87" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.8984375" defaultRowHeight="12.05" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41637,8 +41646,8 @@
   </sheetPr>
   <dimension ref="A1:BN42"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="AR31" sqref="AR31" activeCellId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0" tabSelected="1">
+      <selection activeCell="T12" sqref="T12" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.8984375" defaultRowHeight="13.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42688,7 +42697,7 @@
       <c r="BM10" s="824"/>
       <c r="BN10" s="832"/>
     </row>
-    <row r="11" ht="9" customFormat="1" s="829">
+    <row r="11" ht="11" customFormat="1" s="829">
       <c r="A11" s="819">
         <v>5</v>
       </c>
@@ -42701,7 +42710,7 @@
       <c r="F11" s="820"/>
       <c r="G11" s="822"/>
       <c r="H11" s="823" t="s">
-        <v>217</v>
+        <v>347</v>
       </c>
       <c r="I11" s="820"/>
       <c r="J11" s="820"/>
@@ -42836,7 +42845,7 @@
       <c r="BM12" s="827"/>
       <c r="BN12" s="828"/>
     </row>
-    <row r="13" ht="9" customFormat="1" s="829">
+    <row r="13" ht="11" customFormat="1" s="829">
       <c r="A13" s="819">
         <v>7</v>
       </c>
@@ -42910,7 +42919,7 @@
       <c r="BM13" s="827"/>
       <c r="BN13" s="828"/>
     </row>
-    <row r="14" ht="9" customFormat="1" s="829">
+    <row r="14" ht="11" customFormat="1" s="829">
       <c r="A14" s="819">
         <v>8</v>
       </c>
